--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PicaHealth\Desktop\pica_test-master\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2424" windowHeight="1596"/>
+    <workbookView windowWidth="21000" windowHeight="8532"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -23,35 +18,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+  <si>
+    <t>用例模块</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>测试参数</t>
+  </si>
+  <si>
+    <t>预期</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>name_err</t>
+  </si>
+  <si>
+    <t>{"username": "u4272320562","pwd": "aaaa1111"}</t>
+  </si>
+  <si>
+    <t>{"suc": "name_err","assert": "请输入正确的手机号"}</t>
+  </si>
+  <si>
+    <t>name_null</t>
+  </si>
+  <si>
+    <t>{"username": "","pwd": "aaaa1111"}</t>
+  </si>
+  <si>
+    <t>{"suc": "name_err","assert": "请输入手机号"}</t>
+  </si>
+  <si>
+    <t>pwd_err</t>
+  </si>
+  <si>
+    <t>{"username": "15607241351","pwd":"liwanlei11"}</t>
+  </si>
+  <si>
+    <t>{"suc": "pwd_err","assert": "手机号或密码不正确！"}</t>
+  </si>
+  <si>
+    <t>pwd_null</t>
+  </si>
+  <si>
+    <t>{"username": "15607241351","pwd":""}</t>
+  </si>
+  <si>
+    <t>{"suc": "pwd_err","assert": "请输入密码"}</t>
+  </si>
+  <si>
+    <t>login_ succeed</t>
+  </si>
+  <si>
+    <t>{"username": "15607241351","pwd": "aaa111"}</t>
+  </si>
+  <si>
+    <t>{"suc": "succeed","assert": "个人资料"}</t>
+  </si>
   <si>
     <t>用例编号</t>
   </si>
   <si>
-    <t>用例模块</t>
-  </si>
-  <si>
-    <t>测试参数</t>
-  </si>
-  <si>
-    <t>预期</t>
-  </si>
-  <si>
-    <t>login1</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>{"username": "u4272320562","pwd": "aaaa1111"}</t>
-  </si>
-  <si>
-    <t>login2</t>
-  </si>
-  <si>
-    <t>login3</t>
-  </si>
-  <si>
     <t>register1</t>
   </si>
   <si>
@@ -146,61 +177,19 @@
   </si>
   <si>
     <t>{"suc":"1","assert_vale":"登录"}</t>
-  </si>
-  <si>
-    <t>{"username": "15607241351","pwd": "aaa111"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username": "15607241351","pwd":"liwanlei11"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"suc": "pwd_err","assert": "手机号或密码不正确！"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"suc": "succeed","assert": "个人资料"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"suc": "name_err","assert": "请输入手机号"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username": "","pwd": "aaaa1111"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username": "15607241351","pwd":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"suc": "pwd_err","assert": "请输入密码"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"suc": "name_err","assert": "请输入正确的手机号"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,21 +198,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -231,9 +544,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -251,17 +806,61 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -519,30 +1118,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="49.77734375" customWidth="1"/>
-    <col min="4" max="4" width="64.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="49.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="64.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -551,103 +1151,104 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="137.44140625" customWidth="1"/>
-    <col min="4" max="4" width="50.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="137.444444444444" customWidth="1"/>
+    <col min="4" max="4" width="50.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -656,88 +1257,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="60.109375" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="45.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -746,74 +1348,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -822,65 +1425,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8532"/>
+    <workbookView windowWidth="21000" windowHeight="8532" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>用例模块</t>
   </si>
@@ -80,45 +80,30 @@
     <t>{"suc": "succeed","assert": "个人资料"}</t>
   </si>
   <si>
+    <t>删除病人</t>
+  </si>
+  <si>
+    <t>删除病人-&gt;取消</t>
+  </si>
+  <si>
+    <t>{"moblie":"15607241351","is_confrim":"取消"}</t>
+  </si>
+  <si>
+    <t>{"assert": "取消"}</t>
+  </si>
+  <si>
+    <t>删除病人-&gt;确认</t>
+  </si>
+  <si>
+    <t>{"moblie":"15607241351","is_confrim":"确认"}</t>
+  </si>
+  <si>
+    <t>{"assert": "确定"}</t>
+  </si>
+  <si>
     <t>用例编号</t>
   </si>
   <si>
-    <t>register1</t>
-  </si>
-  <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>{"username": "liwa","mima":"liwanlei","nima2":"liwanlei","shoujihao":"13964636199","youxiang":"952943386@qq.com"}</t>
-  </si>
-  <si>
-    <t>{"suc":"0","assert_vale":"用户名应该是6-16组成"}</t>
-  </si>
-  <si>
-    <t>register2</t>
-  </si>
-  <si>
-    <t>{"username": "liwanlei","mima": "liwanlei","nima2": "liwanlei","shoujihao": "13964636199","youxiang": "952943386@qq.com"}</t>
-  </si>
-  <si>
-    <t>{"suc":"0","assert_vale":"用户名已经存在"}</t>
-  </si>
-  <si>
-    <t>register3</t>
-  </si>
-  <si>
-    <t>{"username": "liwanlei989898987676989","mima": "liwanlei","nima2": "liwanlei","shoujihao": "13964636199","youxiang": "952943386@qq.com"}</t>
-  </si>
-  <si>
-    <t>register4</t>
-  </si>
-  <si>
-    <t>{"username": "lileilei17","mima":"liwanlei","nima2":"liwanleiq","shoujihao": "13964636199","youxiang": "952943386@qq.com"}</t>
-  </si>
-  <si>
-    <t>{"suc":"0","assert_vale":"请查看密码是否一致"}</t>
-  </si>
-  <si>
     <t>rabck1</t>
   </si>
   <si>
@@ -147,6 +132,12 @@
   </si>
   <si>
     <t>{"suc":"0","assert_vale":"邮箱不存在"}</t>
+  </si>
+  <si>
+    <t>添加病人</t>
+  </si>
+  <si>
+    <t>添加病人-&gt;确认-&gt;关闭</t>
   </si>
   <si>
     <t>regai1</t>
@@ -185,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -205,8 +196,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,28 +234,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,85 +332,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,6 +342,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -363,13 +414,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +456,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,145 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,39 +533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,6 +547,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,20 +586,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +618,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,160 +641,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1126,8 +1111,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1230,25 +1215,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="137.444444444444" customWidth="1"/>
+    <col min="2" max="2" width="26.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="71.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="50.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1257,60 +1243,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1"/>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1322,13 +1283,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A11" sqref="$A11:$XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="60.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="45.6666666666667" customWidth="1"/>
@@ -1336,7 +1297,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1350,44 +1311,62 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:1">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:1">
+      <c r="A13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1392,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1427,44 +1406,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8532" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="zhuce" sheetId="2" r:id="rId2"/>
+    <sheet name="patient" sheetId="2" r:id="rId2"/>
     <sheet name="zhaohui" sheetId="3" r:id="rId3"/>
     <sheet name="xiugai" sheetId="4" r:id="rId4"/>
     <sheet name="test" sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>用例模块</t>
   </si>
@@ -35,6 +35,15 @@
     <t>登录</t>
   </si>
   <si>
+    <t>login_ succeed</t>
+  </si>
+  <si>
+    <t>{"username": "15607241351","pwd": "aaa111"}</t>
+  </si>
+  <si>
+    <t>{"suc": "succeed","assert": "个人资料"}</t>
+  </si>
+  <si>
     <t>name_err</t>
   </si>
   <si>
@@ -71,13 +80,43 @@
     <t>{"suc": "pwd_err","assert": "请输入密码"}</t>
   </si>
   <si>
-    <t>login_ succeed</t>
-  </si>
-  <si>
-    <t>{"username": "15607241351","pwd": "aaa111"}</t>
-  </si>
-  <si>
-    <t>{"suc": "succeed","assert": "个人资料"}</t>
+    <t>添加病人</t>
+  </si>
+  <si>
+    <t>添加病人-取消</t>
+  </si>
+  <si>
+    <t>{"moblie":"15607241351","name":"吴","is_confrim":"取消","is_continue":"关闭浏览器","address":""}</t>
+  </si>
+  <si>
+    <t>{"assert": ""}</t>
+  </si>
+  <si>
+    <t>添加病人-确认添加</t>
+  </si>
+  <si>
+    <t>{"moblie":"15607241351","name":"绍","is_confrim":"确定","is_continue":"关闭浏览器","address":""}</t>
+  </si>
+  <si>
+    <t>添加病人-确认添加-关闭(放弃完善资料）</t>
+  </si>
+  <si>
+    <t>{"moblie":"15607241351","name":"峰","is_confrim":"确定","is_continue":"关闭","address":""}</t>
+  </si>
+  <si>
+    <t>{"assert": "关闭"}</t>
+  </si>
+  <si>
+    <t>添加病人-确认添加-继续添加居民</t>
+  </si>
+  <si>
+    <t>{"moblie":"15607241351","name":"测","is_confrim":"确定","is_continue":"继续添加居民","address":""}</t>
+  </si>
+  <si>
+    <t>添加病人-确认添加-继续完善资料</t>
+  </si>
+  <si>
+    <t>{"moblie":"15607241351","name":"试","is_confrim":"确定","is_continue":"继续完善资料","address":"所在地"}</t>
   </si>
   <si>
     <t>删除病人</t>
@@ -95,7 +134,7 @@
     <t>删除病人-&gt;确认</t>
   </si>
   <si>
-    <t>{"moblie":"15607241351","is_confrim":"确认"}</t>
+    <t>{"moblie":"15607241351","is_confrim":"确定"}</t>
   </si>
   <si>
     <t>{"assert": "确定"}</t>
@@ -132,9 +171,6 @@
   </si>
   <si>
     <t>{"suc":"0","assert_vale":"邮箱不存在"}</t>
-  </si>
-  <si>
-    <t>添加病人</t>
   </si>
   <si>
     <t>添加病人-&gt;确认-&gt;关闭</t>
@@ -175,8 +211,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -198,21 +234,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,63 +285,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,26 +337,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -342,37 +378,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,145 +540,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,39 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,6 +601,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -618,21 +669,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -641,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1122,7 +1158,7 @@
     <col min="4" max="4" width="64.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="15" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" customFormat="1" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" customFormat="1" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" customFormat="1" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" customFormat="1" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1215,17 +1251,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="26.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="71.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="39.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
     <col min="4" max="4" width="50.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1243,35 +1279,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="2" customFormat="1" spans="1:4">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1"/>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1311,62 +1415,62 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:1">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:1">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1406,44 +1510,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1562,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
